--- a/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200325.xlsx
+++ b/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200325.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huawei\Desktop\疫情大数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\yunnan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9965BCDA-3D87-48EF-98E4-6980CFE00ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED53C4DF-6B3E-4293-9CFD-3ABE57E99849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="3690" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9400" uniqueCount="3301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9400" uniqueCount="3302">
   <si>
     <t>序号</t>
   </si>
@@ -10465,6 +10465,10 @@
   </si>
   <si>
     <t>美国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区县级</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -10920,10 +10924,10 @@
   <dimension ref="A1:AN20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="18" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="2" width="18" style="12"/>
     <col min="3" max="3" width="18" style="13"/>
@@ -11122,7 +11126,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" ht="16.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -11177,7 +11181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" ht="16.2">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -11234,7 +11238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" ht="16.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -11290,7 +11294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" ht="16.2">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -11343,7 +11347,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" ht="16.2">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -11396,7 +11400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" ht="16.2">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -11449,7 +11453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" ht="16.2">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -11502,7 +11506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" ht="16.2">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -11555,7 +11559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" ht="16.2">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -11608,7 +11612,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" ht="16.2">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -11661,7 +11665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" ht="16.2">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -11714,7 +11718,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" ht="16.2">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -11764,7 +11768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" ht="16.2">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -11817,7 +11821,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:40" ht="16.2">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -11870,7 +11874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" ht="16.2">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -11917,7 +11921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" ht="16.2">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -11970,12 +11974,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" ht="16.2">
       <c r="A19" s="16">
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>47</v>
+        <v>3301</v>
       </c>
       <c r="C19" s="17">
         <v>43915</v>
@@ -12031,7 +12035,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>47</v>
+        <v>3301</v>
       </c>
       <c r="C20" s="17">
         <v>43915</v>
@@ -12078,10 +12082,10 @@
       <selection pane="bottomLeft" activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -59367,6 +59371,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>